--- a/Translator/excel/Missing_in_German.xlsx
+++ b/Translator/excel/Missing_in_German.xlsx
@@ -14,18 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>English</t>
   </si>
   <si>
-    <t>French</t>
-  </si>
-  <si>
     <t>German</t>
-  </si>
-  <si>
-    <t>Italian</t>
   </si>
   <si>
     <t>Tag</t>
@@ -72,21 +66,6 @@
   </si>
   <si>
     <t>Set the number of frames per seconds the skin is updated. A higher value will make animation smoother, a lower value will make cpu usage lower</t>
-  </si>
-  <si>
-    <t>Définir le nombre d'images par seconde selon lequel le skin est mis à jour. Une valeur plus élevée rendra l'animation plus régulière, une valeur plus basse utilisera moins le moins processeur</t>
-  </si>
-  <si>
-    <t>Imposta/ottieni un bpm personalizzato per i plugin attivati su questo deck. Usa "effect_bpm_deck off" per reimpostare e usare i bpm del brano oppure "effect_bpm_deck 120" per impostarlo a 120 bpm.</t>
-  </si>
-  <si>
-    <t>Imposta un bpm personalizzato per i plugin attivati su questo deck. Usa "effect_bpm_deck off" per reimpostare e utilizzare il bpm del brano.</t>
-  </si>
-  <si>
-    <t>Imposta il numero di fotogrammi al secondo di aggiornamento della skin. Un valore più alto renderà una grafica più fluida con più utilizzo della cpu mentre impostare valore basso per un minur consumo del cpu</t>
-  </si>
-  <si>
-    <t>Caricare i Tags</t>
   </si>
 </sst>
 </file>
@@ -444,15 +423,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -460,71 +439,50 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Translator/excel/Missing_in_German.xlsx
+++ b/Translator/excel/Missing_in_German.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>English</t>
   </si>
@@ -43,6 +43,90 @@
     <t>&lt;ContextMenu&gt;&lt;LoadTagS&gt;</t>
   </si>
   <si>
+    <t>&lt;Config&gt;&lt;Connectdevice&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Config&gt;&lt;deck&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Config&gt;&lt;description&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Config&gt;&lt;Reconnectdevice&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Config&gt;&lt;Rescandevices&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ContextMenu&gt;&lt;deckI&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ContextMenu&gt;&lt;delete&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ContextMenu&gt;&lt;deleteFromTag&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ContextMenu&gt;&lt;deleteLyrics&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ContextMenu&gt;&lt;detachImage&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ContextMenu&gt;&lt;ResetTodefault&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ContextMenu&gt;&lt;SamplerOutputAlldecks&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ContextMenu&gt;&lt;SamplerOutputdeckI&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ContextMenu&gt;&lt;SamplerOutputTriggerdeck&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Messages&gt;&lt;deletePOI&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Messages&gt;&lt;deleteSample&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Messages&gt;&lt;deleteSampleFile&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Settings&gt;&lt;audioAutodetect&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Settings&gt;&lt;automixDualdeck&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Settings&gt;&lt;disableBuiltIndefinitions&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Settings&gt;&lt;filterdefaultResonance&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Settings&gt;&lt;historydelay&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Settings&gt;&lt;loopdefault&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Settings&gt;&lt;loopRolldefault&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Settings&gt;&lt;samplerdefaultLoopMode&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Settings&gt;&lt;tooltipdelay&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Settings&gt;&lt;videodelay&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Settings&gt;&lt;autoMixBeatMatchOnfade&gt;</t>
+  </si>
+  <si>
     <t>set/get a custom bpm for plugins activated on this deck. Use 'effect_bpm_deck off' to reset and use the bpm of the song or 'effect_bpm_deck 120' to set it to 120 bpm</t>
   </si>
   <si>
@@ -50,19 +134,19 @@
   </si>
   <si>
     <t>get information about a saved loop: get_saved_loop 'pos', get_saved_loop 'length', get_saved_loop 'name'
-      "get_saved_loop 'next' 'name'" can be used to get information about the upcoming saved loop
-      "get_saved_loop 1 'name'" can be used to get information about the first saved loop</t>
+"get_saved_loop 'next' 'name'" can be used to get information about the upcoming saved loop
+"get_saved_loop 1 'name'" can be used to get information about the first saved loop</t>
   </si>
   <si>
     <t>Activate/deactivate named effect with a single key. Effect parameters can be specified as well.
-      'padfx "echo" 40% 90%' to start/stop the echo effect with first parameter at 40% and second parameter at 90%. When the effect is stopped, the parameters return to their original values.
-      'padfx "echo" 40% 1bt' to start/stop the echo effect with first parameter at 40% and length of 1 beat
-      'padfx "echo" 40% 90% smart_pressed' smart_pressed works as a toggle when pressing the button shortly, or as a temporary while holding the button pressed
-      'padfx "echo" 40% 90% "TRAIL:on"' after the sliders, it is possible to add strings to disable or enable switch parameters by defining their name, a colon and "on" to enable or "off" to disable
-      'padfx "echo out" 80% "solostem:vocal"' as the last parameter, you can add solostem:stemname to only let that stem be audible while applying the effect
-      'padfx "echo out" "mutestem:rhythm"' as the last parameter, you can add mutestem:stemname to mute that stem while applying the effect
-      'padfx "reverb" "stemfx:vocal"' as the last parameter, you can add stemfx:stemname to apply the effect only to that stem (other stems will continue playing normally)
-      stem names can be Vocal,HiHat,Bass,Instru,Kick,Melody,Rhythm,MeloVocal,MeloRhythm</t>
+'padfx "echo" 40% 90%' to start/stop the echo effect with first parameter at 40% and second parameter at 90%. When the effect is stopped, the parameters return to their original values.
+'padfx "echo" 40% 1bt' to start/stop the echo effect with first parameter at 40% and length of 1 beat
+'padfx "echo" 40% 90% smart_pressed' smart_pressed works as a toggle when pressing the button shortly, or as a temporary while holding the button pressed
+'padfx "echo" 40% 90% "TRAIL:on"' after the sliders, it is possible to add strings to disable or enable switch parameters by defining their name, a colon and "on" to enable or "off" to disable
+'padfx "echo out" 80% "solostem:vocal"' as the last parameter, you can add solostem:stemname to only let that stem be audible while applying the effect
+'padfx "echo out" "mutestem:rhythm"' as the last parameter, you can add mutestem:stemname to mute that stem while applying the effect
+'padfx "reverb" "stemfx:vocal"' as the last parameter, you can add stemfx:stemname to apply the effect only to that stem (other stems will continue playing normally)
+ stem names can be Vocal,HiHat,Bass,Instru,Kick,Melody,Rhythm,MeloVocal,MeloRhythm</t>
   </si>
   <si>
     <t>Set the number of frames per seconds the skin is updated. A higher value will make animation smoother, a lower value will make cpu usage lower</t>
@@ -423,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -445,7 +529,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -453,7 +537,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -461,7 +545,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -469,7 +553,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -477,12 +561,152 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
